--- a/mbs-perturbation/nano/svm/smote/nano-svm-linear-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8215962441314554</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8905852417302799</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9835022596639024</v>
+        <v>0.8980299240928437</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9226804123711341</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8364485981308412</v>
+        <v>0.6728971962616822</v>
       </c>
       <c r="D3" t="n">
-        <v>0.877450980392157</v>
+        <v>0.7539267015706805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9755166513097275</v>
+        <v>0.8955728138300206</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8608695652173913</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9295774647887324</v>
+        <v>0.7230046948356808</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8939051918735892</v>
+        <v>0.7530562347188263</v>
       </c>
       <c r="E4" t="n">
-        <v>0.926778196565937</v>
+        <v>0.8445855099296877</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6360759493670886</v>
+        <v>0.5601173020527859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9436619718309859</v>
+        <v>0.8967136150234741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7599243856332702</v>
+        <v>0.6895306859205775</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7912781855451961</v>
+        <v>0.7297383676078379</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5617977528089888</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9389671361502347</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.70298769771529</v>
+        <v>0.669983416252073</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7991580153849545</v>
+        <v>0.5422645418677952</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.790729180397365</v>
+        <v>0.7330735214606181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.89405028300645</v>
+        <v>0.7918564345575007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8249706994689173</v>
+        <v>0.7364994076924315</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8952466616939436</v>
+        <v>0.7820382314656371</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/smote/nano-svm-linear-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.5222929936305732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7183098591549296</v>
+        <v>0.845360824742268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.6456692913385826</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8980299240928437</v>
+        <v>0.5836433202253162</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6681222707423581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6728971962616822</v>
+        <v>0.7927461139896373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7539267015706805</v>
+        <v>0.7251184834123223</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8955728138300206</v>
+        <v>0.8465626836173281</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7230046948356808</v>
+        <v>0.7668393782383419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7530562347188263</v>
+        <v>0.7399999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8445855099296877</v>
+        <v>0.79239891031462</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5601173020527859</v>
+        <v>0.7488151658767772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8967136150234741</v>
+        <v>0.8144329896907216</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6895306859205775</v>
+        <v>0.7802469135802469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7297383676078379</v>
+        <v>0.8430105229421505</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.517948717948718</v>
+        <v>0.7106382978723405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9483568075117371</v>
+        <v>0.8608247422680413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.669983416252073</v>
+        <v>0.7785547785547786</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5422645418677952</v>
+        <v>0.8672880722183645</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7330735214606181</v>
+        <v>0.6729689147065354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7918564345575007</v>
+        <v>0.8160408097858021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7364994076924315</v>
+        <v>0.7339178933771862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7820382314656371</v>
+        <v>0.7865807018635558</v>
       </c>
     </row>
   </sheetData>
